--- a/ftarc_tests.xlsx
+++ b/ftarc_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzz32\CLionProjects\ftarc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69698741-2DF4-4C65-AA7B-99A94C95C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE39A2-76B4-4BDE-A831-3551DD427327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{1107890A-94C6-4A6E-864E-D69A7515E1BD}"/>
   </bookViews>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,12 +210,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
@@ -223,6 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +553,7 @@
   <dimension ref="B3:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +764,9 @@
       <c r="H14" s="1">
         <v>5</v>
       </c>
+      <c r="I14" s="5">
+        <v>22.064</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">

--- a/ftarc_tests.xlsx
+++ b/ftarc_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzz32\CLionProjects\ftarc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE39A2-76B4-4BDE-A831-3551DD427327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD4C166-EF0D-4EBA-A91E-8F86D731F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{1107890A-94C6-4A6E-864E-D69A7515E1BD}"/>
+    <workbookView xWindow="4512" yWindow="2028" windowWidth="17280" windowHeight="8880" xr2:uid="{1107890A-94C6-4A6E-864E-D69A7515E1BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Original size</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>8.1 GB</t>
+  </si>
+  <si>
+    <t>~118 MB/S</t>
+  </si>
+  <si>
+    <t>ftarc 2</t>
+  </si>
+  <si>
+    <t>ftarc 3</t>
+  </si>
+  <si>
+    <t>~100 MB/S</t>
   </si>
 </sst>
 </file>
@@ -187,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,23 +222,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
@@ -234,7 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253A1B9A-F973-4C50-915D-7E3F03587E75}">
-  <dimension ref="B3:I17"/>
+  <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L17" sqref="E12:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,9 +566,11 @@
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,7 +591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,7 +612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -628,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -700,7 +702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -718,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
@@ -727,8 +729,16 @@
         <v>31</v>
       </c>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
@@ -741,8 +751,12 @@
       <c r="H13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -764,11 +778,20 @@
       <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>22.064</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>21</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -786,19 +809,35 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>69.263000000000005</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
